--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3345569.673600813</v>
+        <v>3343682.092084412</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>161.5519252761216</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.8041854157605</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>97.93764088892665</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>161.1486436253827</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>115.251102900997</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5747219976522</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>156.1271626621474</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400737</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002173</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>78.49471243660119</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>252.8505008312588</v>
+        <v>283.3580910135609</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.12772045570763</v>
       </c>
       <c r="G19" t="n">
-        <v>8.959399123748321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>101.4950386131015</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.99177052521168</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151905</v>
+        <v>217.6716772903236</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.2898147863542</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>206.8064269214859</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>25.34051740972951</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>6.749002612119853</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235376</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692858</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.965328113049</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2533.965328113049</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2280.203542751141</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1949.14065540757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.372000137456</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.906241876376</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.6044479702274</v>
+        <v>195.250031532787</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1521.073833303755</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1521.073833303755</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1521.073833303755</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1135.28558070551</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>724.2996759159028</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>306.3358678140896</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1521.073833303755</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4744,22 +4744,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2112.324418312744</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>1743.361901372332</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1385.096202765582</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>999.3079501673376</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>588.3220453777301</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>170.358237275917</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656315</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312744</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312744</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750363</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296043</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,58 +5027,58 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>452.0983189327502</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>698.8634468392142</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1019.726309053207</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V16" t="n">
-        <v>765.0418208473204</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W16" t="n">
-        <v>475.6246508103599</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X16" t="n">
-        <v>247.6350999123426</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.6350999123426</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.8015809431346</v>
+        <v>195.3259000014047</v>
       </c>
       <c r="C19" t="n">
-        <v>217.8015809431346</v>
+        <v>195.3259000014047</v>
       </c>
       <c r="D19" t="n">
-        <v>217.8015809431346</v>
+        <v>195.3259000014047</v>
       </c>
       <c r="E19" t="n">
-        <v>217.8015809431346</v>
+        <v>195.3259000014047</v>
       </c>
       <c r="F19" t="n">
-        <v>217.8015809431346</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227913</v>
+        <v>898.792518248839</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169044</v>
+        <v>644.1080300429521</v>
       </c>
       <c r="W19" t="n">
-        <v>620.2426249169044</v>
+        <v>644.1080300429521</v>
       </c>
       <c r="X19" t="n">
-        <v>620.2426249169044</v>
+        <v>416.1184791449348</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.4500457733743</v>
+        <v>195.3259000014047</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>199.7373324836209</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>199.7373324836209</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>199.7373324836209</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>199.7373324836209</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>199.7373324836207</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1409.025593259708</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1409.025593259708</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1185.240178049214</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1185.240178049214</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="V22" t="n">
-        <v>1185.240178049214</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="W22" t="n">
-        <v>895.823008012253</v>
+        <v>609.375348211878</v>
       </c>
       <c r="X22" t="n">
-        <v>667.8334571142356</v>
+        <v>381.3857973138606</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.0408779707054</v>
+        <v>381.3857973138606</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028577</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.2170914602857</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011509</v>
+        <v>944.1853708078967</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>944.1853708078967</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889265</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889265</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889265</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471189</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889265</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110249</v>
+        <v>439.5324299542203</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644889</v>
+        <v>326.3571123076841</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335241</v>
+        <v>326.3571123076841</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480325019</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159625</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386991</v>
+        <v>902.6804289818948</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220527</v>
+        <v>730.4517433652484</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598936</v>
+        <v>565.4200295030892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7190,28 +7190,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7789,10 +7789,10 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,16 +7837,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.9802687929767</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>381.3739760657747</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.90051268448542</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>62.91120742583809</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338592</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>143.0528486217881</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>33.38685156731856</v>
+        <v>2.879261385016434</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>48.29332756722361</v>
       </c>
       <c r="G19" t="n">
-        <v>157.5341693396293</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>64.99852985027613</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.97258187858118</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338687</v>
+        <v>68.56567510825376</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>45.144147860215</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.74113413690336</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>65.89018860828251</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.5413092227005</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523555</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746537.7231523496</v>
+        <v>746537.7231523495</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846411</v>
-      </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541046</v>
-      </c>
       <c r="I2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869594</v>
+        <v>691597.6334869593</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="M2" t="n">
         <v>697885.5043846406</v>
@@ -26350,10 +26350,10 @@
         <v>697885.504384641</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.605302846</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008667</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563567</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275956</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275958</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275954</v>
-      </c>
       <c r="O4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445355</v>
+        <v>-131716.4111445358</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.4680700089</v>
+        <v>458251.468070009</v>
       </c>
       <c r="D6" t="n">
         <v>458251.4680700089</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705302</v>
+        <v>32458.91038108092</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.4059839491</v>
+        <v>557618.9468579772</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839493</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.405983949</v>
+        <v>557618.9468579772</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.4059839491</v>
+        <v>557618.9468579773</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913561</v>
+        <v>381195.727665384</v>
       </c>
       <c r="K6" t="n">
-        <v>517596.5275182549</v>
+        <v>517578.0337803208</v>
       </c>
       <c r="L6" t="n">
-        <v>552363.0349009893</v>
+        <v>552363.0349009888</v>
       </c>
       <c r="M6" t="n">
-        <v>427904.9264680186</v>
+        <v>427904.9264680183</v>
       </c>
       <c r="N6" t="n">
         <v>562705.941701856</v>
       </c>
       <c r="O6" t="n">
-        <v>562705.9417018561</v>
+        <v>562705.9417018559</v>
       </c>
       <c r="P6" t="n">
-        <v>518543.3363990103</v>
+        <v>518543.3363990105</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12.86378753284993</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.02779476617681</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332949</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>225.9851318754305</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>125.133230616595</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>208.6716698633602</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>11.1775364724827</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>11.11965843648048</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.303443726367004e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>316.5557073809159</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>663.7376783068829</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813618</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221117</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36768,7 +36768,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>343.0950860824984</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>472.9319699494724</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
